--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H2">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I2">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J2">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N2">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O2">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P2">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q2">
-        <v>2065.650526666169</v>
+        <v>2094.840084925143</v>
       </c>
       <c r="R2">
-        <v>2065.650526666169</v>
+        <v>8379.360339700574</v>
       </c>
       <c r="S2">
-        <v>0.03242093957575657</v>
+        <v>0.03134709741622019</v>
       </c>
       <c r="T2">
-        <v>0.03242093957575657</v>
+        <v>0.01663558512030841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H3">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I3">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J3">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N3">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O3">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P3">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q3">
-        <v>886.174940039216</v>
+        <v>957.8089661260726</v>
       </c>
       <c r="R3">
-        <v>886.174940039216</v>
+        <v>5746.853796756436</v>
       </c>
       <c r="S3">
-        <v>0.01390875359295677</v>
+        <v>0.01433261239525882</v>
       </c>
       <c r="T3">
-        <v>0.01390875359295677</v>
+        <v>0.01140925698790577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H4">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I4">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J4">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N4">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O4">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P4">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q4">
-        <v>1130.053955650999</v>
+        <v>1189.92612478019</v>
       </c>
       <c r="R4">
-        <v>1130.053955650999</v>
+        <v>7139.556748681139</v>
       </c>
       <c r="S4">
-        <v>0.0177365002165377</v>
+        <v>0.01780600362768163</v>
       </c>
       <c r="T4">
-        <v>0.0177365002165377</v>
+        <v>0.01417419697912187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H5">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I5">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J5">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N5">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O5">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P5">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q5">
-        <v>1712.014282134311</v>
+        <v>1731.305906291342</v>
       </c>
       <c r="R5">
-        <v>1712.014282134311</v>
+        <v>10387.83543774805</v>
       </c>
       <c r="S5">
-        <v>0.02687052377804224</v>
+        <v>0.02590718751867468</v>
       </c>
       <c r="T5">
-        <v>0.02687052377804224</v>
+        <v>0.02062302056896494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H6">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I6">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J6">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N6">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O6">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P6">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q6">
-        <v>1078.942387594696</v>
+        <v>1157.591548215045</v>
       </c>
       <c r="R6">
-        <v>1078.942387594696</v>
+        <v>6945.549289290271</v>
       </c>
       <c r="S6">
-        <v>0.0169342904341066</v>
+        <v>0.01732215040719294</v>
       </c>
       <c r="T6">
-        <v>0.0169342904341066</v>
+        <v>0.01378903301984203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H7">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I7">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J7">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.4512467417156</v>
+        <v>14.742243</v>
       </c>
       <c r="N7">
-        <v>14.4512467417156</v>
+        <v>29.484486</v>
       </c>
       <c r="O7">
-        <v>0.08918633067943733</v>
+        <v>0.0886035254366179</v>
       </c>
       <c r="P7">
-        <v>0.08918633067943733</v>
+        <v>0.06703050752643071</v>
       </c>
       <c r="Q7">
-        <v>672.9840065658544</v>
+        <v>693.3026780747505</v>
       </c>
       <c r="R7">
-        <v>672.9840065658544</v>
+        <v>2773.210712299002</v>
       </c>
       <c r="S7">
-        <v>0.01056266465728657</v>
+        <v>0.01037455161610207</v>
       </c>
       <c r="T7">
-        <v>0.01056266465728657</v>
+        <v>0.005505668808921244</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H8">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J8">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N8">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O8">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P8">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q8">
-        <v>516.9436611387721</v>
+        <v>549.2868696910257</v>
       </c>
       <c r="R8">
-        <v>516.9436611387721</v>
+        <v>3295.721218146154</v>
       </c>
       <c r="S8">
-        <v>0.008113569544069867</v>
+        <v>0.008219505220261485</v>
       </c>
       <c r="T8">
-        <v>0.008113569544069867</v>
+        <v>0.006543011475173776</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H9">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J9">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N9">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O9">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P9">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q9">
-        <v>221.7715494462914</v>
+        <v>251.1465636691729</v>
       </c>
       <c r="R9">
-        <v>221.7715494462914</v>
+        <v>2260.319073022556</v>
       </c>
       <c r="S9">
-        <v>0.003480764006980601</v>
+        <v>0.003758146435014313</v>
       </c>
       <c r="T9">
-        <v>0.003480764006980601</v>
+        <v>0.004487422525579917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H10">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J10">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N10">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O10">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P10">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q10">
-        <v>282.803998826171</v>
+        <v>312.0098765283266</v>
       </c>
       <c r="R10">
-        <v>282.803998826171</v>
+        <v>2808.088888754939</v>
       </c>
       <c r="S10">
-        <v>0.004438684685218</v>
+        <v>0.004668902444983425</v>
       </c>
       <c r="T10">
-        <v>0.004438684685218</v>
+        <v>0.005574912623455019</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H11">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J11">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N11">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O11">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P11">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q11">
-        <v>428.4436885636877</v>
+        <v>453.9647721025626</v>
       </c>
       <c r="R11">
-        <v>428.4436885636877</v>
+        <v>4085.682948923063</v>
       </c>
       <c r="S11">
-        <v>0.006724538715150457</v>
+        <v>0.006793109429706056</v>
       </c>
       <c r="T11">
-        <v>0.006724538715150457</v>
+        <v>0.008111326368121204</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H12">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J12">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N12">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O12">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P12">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q12">
-        <v>270.012967247266</v>
+        <v>303.5314449420379</v>
       </c>
       <c r="R12">
-        <v>270.012967247266</v>
+        <v>2731.783004478341</v>
       </c>
       <c r="S12">
-        <v>0.004237926010612685</v>
+        <v>0.004542031557422741</v>
       </c>
       <c r="T12">
-        <v>0.004237926010612685</v>
+        <v>0.005423422177692768</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H13">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J13">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.4512467417156</v>
+        <v>14.742243</v>
       </c>
       <c r="N13">
-        <v>14.4512467417156</v>
+        <v>29.484486</v>
       </c>
       <c r="O13">
-        <v>0.08918633067943733</v>
+        <v>0.0886035254366179</v>
       </c>
       <c r="P13">
-        <v>0.08918633067943733</v>
+        <v>0.06703050752643071</v>
       </c>
       <c r="Q13">
-        <v>168.4190097748397</v>
+        <v>181.790514955557</v>
       </c>
       <c r="R13">
-        <v>168.4190097748397</v>
+        <v>1090.743089733342</v>
       </c>
       <c r="S13">
-        <v>0.002643381573422015</v>
+        <v>0.002720305489027489</v>
       </c>
       <c r="T13">
-        <v>0.002643381573422015</v>
+        <v>0.002165457597959751</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H14">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I14">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J14">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N14">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O14">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P14">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q14">
-        <v>5532.804774374305</v>
+        <v>5748.40804964397</v>
       </c>
       <c r="R14">
-        <v>5532.804774374305</v>
+        <v>34490.44829786383</v>
       </c>
       <c r="S14">
-        <v>0.0868388563112623</v>
+        <v>0.08601893214527299</v>
       </c>
       <c r="T14">
-        <v>0.0868388563112623</v>
+        <v>0.0684740559226521</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H15">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I15">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J15">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N15">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O15">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P15">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q15">
-        <v>2373.602347485673</v>
+        <v>2628.304093721326</v>
       </c>
       <c r="R15">
-        <v>2373.602347485673</v>
+        <v>23654.73684349194</v>
       </c>
       <c r="S15">
-        <v>0.03725432607852917</v>
+        <v>0.03932983002293314</v>
       </c>
       <c r="T15">
-        <v>0.03725432607852917</v>
+        <v>0.04696186490441193</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H16">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I16">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J16">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N16">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O16">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P16">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q16">
-        <v>3026.82754919698</v>
+        <v>3265.252065487626</v>
       </c>
       <c r="R16">
-        <v>3026.82754919698</v>
+        <v>29387.26858938864</v>
       </c>
       <c r="S16">
-        <v>0.04750687098902955</v>
+        <v>0.04886109222461837</v>
       </c>
       <c r="T16">
-        <v>0.04750687098902955</v>
+        <v>0.05834268825460367</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H17">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I17">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J17">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N17">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O17">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P17">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q17">
-        <v>4585.596968949689</v>
+        <v>4750.841307524881</v>
       </c>
       <c r="R17">
-        <v>4585.596968949689</v>
+        <v>42757.57176772393</v>
       </c>
       <c r="S17">
-        <v>0.07197217551074983</v>
+        <v>0.07109138609084187</v>
       </c>
       <c r="T17">
-        <v>0.07197217551074983</v>
+        <v>0.08488681663558638</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H18">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I18">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J18">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N18">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O18">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P18">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q18">
-        <v>2889.92620789213</v>
+        <v>3176.523411903766</v>
       </c>
       <c r="R18">
-        <v>2889.92620789213</v>
+        <v>28588.71070713389</v>
       </c>
       <c r="S18">
-        <v>0.04535816768370907</v>
+        <v>0.04753336044808865</v>
       </c>
       <c r="T18">
-        <v>0.04535816768370907</v>
+        <v>0.05675730738002766</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H19">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I19">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J19">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.4512467417156</v>
+        <v>14.742243</v>
       </c>
       <c r="N19">
-        <v>14.4512467417156</v>
+        <v>29.484486</v>
       </c>
       <c r="O19">
-        <v>0.08918633067943733</v>
+        <v>0.0886035254366179</v>
       </c>
       <c r="P19">
-        <v>0.08918633067943733</v>
+        <v>0.06703050752643071</v>
       </c>
       <c r="Q19">
-        <v>1802.574577130714</v>
+        <v>1902.477771054792</v>
       </c>
       <c r="R19">
-        <v>1802.574577130714</v>
+        <v>11414.86662632875</v>
       </c>
       <c r="S19">
-        <v>0.02829189192049355</v>
+        <v>0.02846859598047985</v>
       </c>
       <c r="T19">
-        <v>0.02829189192049355</v>
+        <v>0.02266199061753743</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H20">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I20">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J20">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N20">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O20">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P20">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q20">
-        <v>7032.3637838107</v>
+        <v>7066.655826435774</v>
       </c>
       <c r="R20">
-        <v>7032.3637838107</v>
+        <v>42399.93495861464</v>
       </c>
       <c r="S20">
-        <v>0.1103748375470059</v>
+        <v>0.105745135484219</v>
       </c>
       <c r="T20">
-        <v>0.1103748375470059</v>
+        <v>0.08417679852693613</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H21">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I21">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J21">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N21">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O21">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P21">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q21">
-        <v>3016.921049326918</v>
+        <v>3231.037232767626</v>
       </c>
       <c r="R21">
-        <v>3016.921049326918</v>
+        <v>29079.33509490864</v>
       </c>
       <c r="S21">
-        <v>0.04735138581399712</v>
+        <v>0.0483491029314634</v>
       </c>
       <c r="T21">
-        <v>0.04735138581399712</v>
+        <v>0.05773134637990884</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H22">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I22">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J22">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N22">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O22">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P22">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q22">
-        <v>3847.190223555378</v>
+        <v>4014.052644503673</v>
       </c>
       <c r="R22">
-        <v>3847.190223555378</v>
+        <v>36126.47380053305</v>
       </c>
       <c r="S22">
-        <v>0.06038268340368106</v>
+        <v>0.06006611205627624</v>
       </c>
       <c r="T22">
-        <v>0.06038268340368106</v>
+        <v>0.07172206536553301</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H23">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I23">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J23">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N23">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O23">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P23">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q23">
-        <v>5828.433745024148</v>
+        <v>5840.323114913837</v>
       </c>
       <c r="R23">
-        <v>5828.433745024148</v>
+        <v>52562.90803422454</v>
       </c>
       <c r="S23">
-        <v>0.0914788323723391</v>
+        <v>0.08739434524996147</v>
       </c>
       <c r="T23">
-        <v>0.0914788323723391</v>
+        <v>0.1043533987470852</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H24">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I24">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J24">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N24">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O24">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P24">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q24">
-        <v>3673.18443918244</v>
+        <v>3904.976383492762</v>
       </c>
       <c r="R24">
-        <v>3673.18443918244</v>
+        <v>35144.78745143486</v>
       </c>
       <c r="S24">
-        <v>0.0576516159030753</v>
+        <v>0.05843389955265295</v>
       </c>
       <c r="T24">
-        <v>0.0576516159030753</v>
+        <v>0.06977311864886138</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H25">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I25">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J25">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.4512467417156</v>
+        <v>14.742243</v>
       </c>
       <c r="N25">
-        <v>14.4512467417156</v>
+        <v>29.484486</v>
       </c>
       <c r="O25">
-        <v>0.08918633067943733</v>
+        <v>0.0886035254366179</v>
       </c>
       <c r="P25">
-        <v>0.08918633067943733</v>
+        <v>0.06703050752643071</v>
       </c>
       <c r="Q25">
-        <v>2291.12731982586</v>
+        <v>2338.761533520842</v>
       </c>
       <c r="R25">
-        <v>2291.12731982586</v>
+        <v>14032.56920112506</v>
       </c>
       <c r="S25">
-        <v>0.03595985837755596</v>
+        <v>0.03499712753835629</v>
       </c>
       <c r="T25">
-        <v>0.03595985837755596</v>
+        <v>0.02785892835947377</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H26">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I26">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J26">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N26">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O26">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P26">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q26">
-        <v>1727.046106978562</v>
+        <v>1862.407411318685</v>
       </c>
       <c r="R26">
-        <v>1727.046106978562</v>
+        <v>11174.44446791211</v>
       </c>
       <c r="S26">
-        <v>0.02710645230452698</v>
+        <v>0.02786898483154788</v>
       </c>
       <c r="T26">
-        <v>0.02710645230452698</v>
+        <v>0.02218467932896583</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H27">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I27">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J27">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N27">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O27">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P27">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q27">
-        <v>740.9118631343526</v>
+        <v>851.5354131217266</v>
       </c>
       <c r="R27">
-        <v>740.9118631343526</v>
+        <v>7663.81871809554</v>
       </c>
       <c r="S27">
-        <v>0.01162881060254106</v>
+        <v>0.01274233949434948</v>
       </c>
       <c r="T27">
-        <v>0.01162881060254106</v>
+        <v>0.01521501683457225</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H28">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I28">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J28">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N28">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O28">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P28">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q28">
-        <v>944.8138780438483</v>
+        <v>1057.8980465669</v>
       </c>
       <c r="R28">
-        <v>944.8138780438483</v>
+        <v>9521.082419102098</v>
       </c>
       <c r="S28">
-        <v>0.01482910746758</v>
+        <v>0.01583034111329155</v>
       </c>
       <c r="T28">
-        <v>0.01482910746758</v>
+        <v>0.01890225155612591</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H29">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I29">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J29">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N29">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O29">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P29">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q29">
-        <v>1431.378426738879</v>
+        <v>1539.209114022672</v>
       </c>
       <c r="R29">
-        <v>1431.378426738879</v>
+        <v>13852.88202620405</v>
       </c>
       <c r="S29">
-        <v>0.02246586868604541</v>
+        <v>0.02303265933682323</v>
       </c>
       <c r="T29">
-        <v>0.02246586868604541</v>
+        <v>0.02750219453108551</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H30">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I30">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J30">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N30">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O30">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P30">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q30">
-        <v>902.0805920917113</v>
+        <v>1029.151148190202</v>
       </c>
       <c r="R30">
-        <v>902.0805920917113</v>
+        <v>9262.360333711815</v>
       </c>
       <c r="S30">
-        <v>0.014158397072069</v>
+        <v>0.01540017375573846</v>
       </c>
       <c r="T30">
-        <v>0.014158397072069</v>
+        <v>0.01838860933290968</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H31">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I31">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J31">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>14.4512467417156</v>
+        <v>14.742243</v>
       </c>
       <c r="N31">
-        <v>14.4512467417156</v>
+        <v>29.484486</v>
       </c>
       <c r="O31">
-        <v>0.08918633067943733</v>
+        <v>0.0886035254366179</v>
       </c>
       <c r="P31">
-        <v>0.08918633067943733</v>
+        <v>0.06703050752643071</v>
       </c>
       <c r="Q31">
-        <v>562.6674955875676</v>
+        <v>616.377381369255</v>
       </c>
       <c r="R31">
-        <v>562.6674955875676</v>
+        <v>3698.26428821553</v>
       </c>
       <c r="S31">
-        <v>0.008831217401100558</v>
+        <v>0.009223444766967582</v>
       </c>
       <c r="T31">
-        <v>0.008831217401100558</v>
+        <v>0.007342182203636406</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H32">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I32">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J32">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N32">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O32">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P32">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q32">
-        <v>566.6036046649783</v>
+        <v>569.3163361374791</v>
       </c>
       <c r="R32">
-        <v>566.6036046649783</v>
+        <v>2277.265344549916</v>
       </c>
       <c r="S32">
-        <v>0.008892995689787308</v>
+        <v>0.008519225299331063</v>
       </c>
       <c r="T32">
-        <v>0.008892995689787308</v>
+        <v>0.004521066041437516</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H33">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I33">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J33">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N33">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O33">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P33">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q33">
-        <v>243.0759264009507</v>
+        <v>260.3044954307373</v>
       </c>
       <c r="R33">
-        <v>243.0759264009507</v>
+        <v>1561.826972584424</v>
       </c>
       <c r="S33">
-        <v>0.003815141922813687</v>
+        <v>0.003895185334129668</v>
       </c>
       <c r="T33">
-        <v>0.003815141922813687</v>
+        <v>0.003100702737716398</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H34">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I34">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J34">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N34">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O34">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P34">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q34">
-        <v>309.9714285993796</v>
+        <v>323.38715805046</v>
       </c>
       <c r="R34">
-        <v>309.9714285993796</v>
+        <v>1940.32294830276</v>
       </c>
       <c r="S34">
-        <v>0.004865084789076494</v>
+        <v>0.004839151598974968</v>
       </c>
       <c r="T34">
-        <v>0.004865084789076494</v>
+        <v>0.003852132651993311</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H35">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I35">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J35">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N35">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O35">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P35">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q35">
-        <v>469.6019249010138</v>
+        <v>470.5183667221004</v>
       </c>
       <c r="R35">
-        <v>469.6019249010138</v>
+        <v>2823.110200332602</v>
       </c>
       <c r="S35">
-        <v>0.007370528284107592</v>
+        <v>0.007040816711451054</v>
       </c>
       <c r="T35">
-        <v>0.007370528284107592</v>
+        <v>0.005604734506896997</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H36">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I36">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J36">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N36">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O36">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P36">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q36">
-        <v>295.9516327399512</v>
+        <v>314.5995647668024</v>
       </c>
       <c r="R36">
-        <v>295.9516327399512</v>
+        <v>1887.597388600814</v>
       </c>
       <c r="S36">
-        <v>0.004645040329205268</v>
+        <v>0.0047076544290004</v>
       </c>
       <c r="T36">
-        <v>0.004645040329205268</v>
+        <v>0.003747456340093712</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H37">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I37">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J37">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>14.4512467417156</v>
+        <v>14.742243</v>
       </c>
       <c r="N37">
-        <v>14.4512467417156</v>
+        <v>29.484486</v>
       </c>
       <c r="O37">
-        <v>0.08918633067943733</v>
+        <v>0.0886035254366179</v>
       </c>
       <c r="P37">
-        <v>0.08918633067943733</v>
+        <v>0.06703050752643071</v>
       </c>
       <c r="Q37">
-        <v>184.5981007336761</v>
+        <v>188.419413661317</v>
       </c>
       <c r="R37">
-        <v>184.5981007336761</v>
+        <v>753.6776546452679</v>
       </c>
       <c r="S37">
-        <v>0.002897316749578691</v>
+        <v>0.002819500045684609</v>
       </c>
       <c r="T37">
-        <v>0.002897316749578691</v>
+        <v>0.001496279938902089</v>
       </c>
     </row>
   </sheetData>
